--- a/ResultadoEleicoesDistritos/COIMBRA_COIMBRA.xlsx
+++ b/ResultadoEleicoesDistritos/COIMBRA_COIMBRA.xlsx
@@ -597,64 +597,64 @@
         <v>37437</v>
       </c>
       <c r="H2" t="n">
-        <v>1421</v>
+        <v>1413</v>
       </c>
       <c r="I2" t="n">
-        <v>3775</v>
+        <v>3798</v>
       </c>
       <c r="J2" t="n">
-        <v>15232</v>
+        <v>15507</v>
       </c>
       <c r="K2" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L2" t="n">
-        <v>4332</v>
+        <v>4241</v>
       </c>
       <c r="M2" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="N2" t="n">
-        <v>2612</v>
+        <v>2651</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P2" t="n">
         <v>53</v>
       </c>
       <c r="Q2" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="R2" t="n">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="S2" t="n">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="T2" t="n">
-        <v>2761</v>
+        <v>2684</v>
       </c>
       <c r="U2" t="n">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="V2" t="n">
-        <v>23938</v>
+        <v>23701</v>
       </c>
       <c r="W2" t="n">
         <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>24038</v>
+        <v>24067</v>
       </c>
       <c r="Y2" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="AA2" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
